--- a/src/java/sample/sws-sample.xlsx
+++ b/src/java/sample/sws-sample.xlsx
@@ -58,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +77,14 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -101,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -111,6 +119,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,7 +430,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -503,7 +514,7 @@
     <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
     </row>
